--- a/Data_EXCEL/intents_excel_2.xlsx
+++ b/Data_EXCEL/intents_excel_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atilla\Documents\VSCode\EngineeringProjectII\Data_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0E87B-983B-42D2-8732-4B9B2847A245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB4C3AC-759E-462F-BC89-294DAECEFFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11295" yWindow="5685" windowWidth="21600" windowHeight="11505" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10965" yWindow="5190" windowWidth="21600" windowHeight="11505" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tibbi Birimler ve Hastaliklari" sheetId="9" r:id="rId1"/>
@@ -3367,7 +3367,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -3524,10 +3524,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="18.75">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="B14" s="8"/>
     </row>
   </sheetData>
@@ -4399,7 +4399,7 @@
     <col min="33" max="49" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="18">
+    <row r="1" spans="1:47" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>337</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="54">
+    <row r="2" spans="1:47" ht="30.75">
       <c r="A2" s="2" t="s">
         <v>348</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="162">
+    <row r="3" spans="1:47" ht="90.75">
       <c r="A3" s="2" t="s">
         <v>389</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="144">
+    <row r="4" spans="1:47" ht="120.75">
       <c r="A4" s="2" t="s">
         <v>422</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="162">
+    <row r="5" spans="1:47" ht="135.75">
       <c r="A5" s="2" t="s">
         <v>453</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="126">
+    <row r="6" spans="1:47" ht="105.75">
       <c r="A6" s="2" t="s">
         <v>479</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="144">
+    <row r="7" spans="1:47" ht="120.75">
       <c r="B7" s="2" t="s">
         <v>502</v>
       </c>

--- a/Data_EXCEL/intents_excel_2.xlsx
+++ b/Data_EXCEL/intents_excel_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atilla\Documents\VSCode\EngineeringProjectII\Data_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB4C3AC-759E-462F-BC89-294DAECEFFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F85C6-5B03-4C54-8062-29C4CB12DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10965" yWindow="5190" windowWidth="21600" windowHeight="11505" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10740" yWindow="4485" windowWidth="21600" windowHeight="11505" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tibbi Birimler ve Hastaliklari" sheetId="9" r:id="rId1"/>
@@ -2368,9 +2368,6 @@
     <t>ödeme_bilgi</t>
   </si>
   <si>
-    <t>ödememi nasıl gerçekleştirebilirim,ödememi nasıl yapabilirim,ödeme konusunda bilgi alabilir miyim . Kupon kodu kullanmak istiyorum. Indirim var mı</t>
-  </si>
-  <si>
     <t>muayene_bilgi</t>
   </si>
   <si>
@@ -2416,10 +2413,13 @@
     <t>ödeme indirim kuponu</t>
   </si>
   <si>
-    <t>merhaba, internetten aldığım indirim kuponu kodunu nasıl kullanabilirim</t>
-  </si>
-  <si>
     <t>böyle kullanırsın</t>
+  </si>
+  <si>
+    <t>ödememi nasıl gerçekleştirebilirim,ödememi nasıl yapabilirim,ödeme konusunda bilgi alabilir miyim .</t>
+  </si>
+  <si>
+    <t>merhaba, internetten aldığım indirim kuponu kodunu nasıl kullanabilirim. Kupon kodu kullanmak istiyorum. Indirim var mı</t>
   </si>
 </sst>
 </file>
@@ -4963,7 +4963,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="105.75">
+    <row r="6" spans="1:47" ht="126">
       <c r="A6" s="2" t="s">
         <v>479</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="120.75">
+    <row r="7" spans="1:47" ht="144">
       <c r="B7" s="2" t="s">
         <v>502</v>
       </c>
@@ -5831,8 +5831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FDD7F1-31AF-4974-933A-F98234E296CB}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B5" t="s">
         <v>695</v>
@@ -5958,18 +5958,18 @@
         <v>771</v>
       </c>
       <c r="C10" t="s">
+        <v>779</v>
+      </c>
+      <c r="D10" t="s">
         <v>780</v>
-      </c>
-      <c r="D10" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B11" t="s">
         <v>787</v>
-      </c>
-      <c r="B11" t="s">
-        <v>788</v>
       </c>
       <c r="C11" t="s">
         <v>698</v>
@@ -6000,7 +6000,7 @@
         <v>732</v>
       </c>
       <c r="C13" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="D13" t="s">
         <v>733</v>
@@ -6008,44 +6008,44 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>788</v>
+      </c>
+      <c r="B14" t="s">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>792</v>
+      </c>
+      <c r="D14" t="s">
         <v>790</v>
-      </c>
-      <c r="C14" t="s">
-        <v>791</v>
-      </c>
-      <c r="D14" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C15" t="s">
         <v>784</v>
       </c>
-      <c r="B15" t="s">
-        <v>783</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>785</v>
-      </c>
-      <c r="D15" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>775</v>
+      </c>
+      <c r="B16" t="s">
         <v>776</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>777</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>778</v>
-      </c>
-      <c r="D16" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:4">
